--- a/Code/Results/Cases/Case_5_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991285098028984</v>
+        <v>1.049779759218478</v>
       </c>
       <c r="D2">
-        <v>1.016485855226508</v>
+        <v>1.046719066332265</v>
       </c>
       <c r="E2">
-        <v>1.011202906029013</v>
+        <v>1.055985252378274</v>
       </c>
       <c r="F2">
-        <v>1.013710839572544</v>
+        <v>1.064647919388419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044882787476459</v>
+        <v>1.037891377006614</v>
       </c>
       <c r="J2">
-        <v>1.021335318274333</v>
+        <v>1.054816396963882</v>
       </c>
       <c r="K2">
-        <v>1.02772019603346</v>
+        <v>1.049483715523722</v>
       </c>
       <c r="L2">
-        <v>1.022508342097052</v>
+        <v>1.058724206674621</v>
       </c>
       <c r="M2">
-        <v>1.024982409001629</v>
+        <v>1.067363290219444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007664093016756</v>
+        <v>1.051422459474212</v>
       </c>
       <c r="D3">
-        <v>1.02277730724927</v>
+        <v>1.047919464890361</v>
       </c>
       <c r="E3">
-        <v>1.018766364993565</v>
+        <v>1.057491640126352</v>
       </c>
       <c r="F3">
-        <v>1.02209407423693</v>
+        <v>1.066341427089236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047580657694903</v>
+        <v>1.038281166959797</v>
       </c>
       <c r="J3">
-        <v>1.027947985447478</v>
+        <v>1.056105125808102</v>
       </c>
       <c r="K3">
-        <v>1.033126812596337</v>
+        <v>1.05049480413219</v>
       </c>
       <c r="L3">
-        <v>1.029164628039491</v>
+        <v>1.060042379528147</v>
       </c>
       <c r="M3">
-        <v>1.032451851493716</v>
+        <v>1.06886984643475</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013000115960674</v>
+        <v>1.052483056015862</v>
       </c>
       <c r="D4">
-        <v>1.026711474996382</v>
+        <v>1.048693893065423</v>
       </c>
       <c r="E4">
-        <v>1.023501062280377</v>
+        <v>1.058464461607183</v>
       </c>
       <c r="F4">
-        <v>1.027344233926713</v>
+        <v>1.06743553210545</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049249990188615</v>
+        <v>1.038530648265959</v>
       </c>
       <c r="J4">
-        <v>1.032077023681234</v>
+        <v>1.056936347906306</v>
       </c>
       <c r="K4">
-        <v>1.036497860350535</v>
+        <v>1.051146174450459</v>
       </c>
       <c r="L4">
-        <v>1.033323888718209</v>
+        <v>1.060892912643394</v>
       </c>
       <c r="M4">
-        <v>1.037123470005183</v>
+        <v>1.069842515340154</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015201442670431</v>
+        <v>1.052928382075461</v>
       </c>
       <c r="D5">
-        <v>1.028334581197212</v>
+        <v>1.049018917043821</v>
       </c>
       <c r="E5">
-        <v>1.025455752679373</v>
+        <v>1.058872987815108</v>
       </c>
       <c r="F5">
-        <v>1.029512311285724</v>
+        <v>1.067895096139295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049934433481574</v>
+        <v>1.038634877674889</v>
       </c>
       <c r="J5">
-        <v>1.03377916976663</v>
+        <v>1.057285163016612</v>
       </c>
       <c r="K5">
-        <v>1.037886311352337</v>
+        <v>1.051419330001377</v>
       </c>
       <c r="L5">
-        <v>1.035039209034638</v>
+        <v>1.061249908183964</v>
       </c>
       <c r="M5">
-        <v>1.0390511250455</v>
+        <v>1.070250915126877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015568673523384</v>
+        <v>1.053003122437076</v>
       </c>
       <c r="D6">
-        <v>1.028605353597758</v>
+        <v>1.049073458217405</v>
       </c>
       <c r="E6">
-        <v>1.025781920711845</v>
+        <v>1.058941555179441</v>
       </c>
       <c r="F6">
-        <v>1.029874121101262</v>
+        <v>1.067972235961908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05004836308143</v>
+        <v>1.038652340077506</v>
       </c>
       <c r="J6">
-        <v>1.03406305026062</v>
+        <v>1.05734369388453</v>
       </c>
       <c r="K6">
-        <v>1.038117801267326</v>
+        <v>1.051465154314117</v>
       </c>
       <c r="L6">
-        <v>1.035325328771591</v>
+        <v>1.061309816226209</v>
       </c>
       <c r="M6">
-        <v>1.039372723938179</v>
+        <v>1.070319457622475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013029691423411</v>
+        <v>1.052489008624616</v>
       </c>
       <c r="D7">
-        <v>1.026733281689875</v>
+        <v>1.048698238185375</v>
       </c>
       <c r="E7">
-        <v>1.023527318554025</v>
+        <v>1.058469922100866</v>
       </c>
       <c r="F7">
-        <v>1.027373354164451</v>
+        <v>1.067441674369937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049259202729101</v>
+        <v>1.038532043543998</v>
       </c>
       <c r="J7">
-        <v>1.032099897563193</v>
+        <v>1.056941011256555</v>
       </c>
       <c r="K7">
-        <v>1.036516523616813</v>
+        <v>1.051149827032658</v>
       </c>
       <c r="L7">
-        <v>1.033346936804902</v>
+        <v>1.060897685056856</v>
       </c>
       <c r="M7">
-        <v>1.037149367038051</v>
+        <v>1.069847974388837</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002053690634671</v>
+        <v>1.050335409035239</v>
       </c>
       <c r="D8">
-        <v>1.018641638589437</v>
+        <v>1.047125229401512</v>
       </c>
       <c r="E8">
-        <v>1.013793516434466</v>
+        <v>1.056494745022865</v>
       </c>
       <c r="F8">
-        <v>1.016581774595493</v>
+        <v>1.065220608550963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045810953466377</v>
+        <v>1.038023677354945</v>
       </c>
       <c r="J8">
-        <v>1.02360248695882</v>
+        <v>1.055252487491488</v>
       </c>
       <c r="K8">
-        <v>1.02957488156429</v>
+        <v>1.049826016437621</v>
       </c>
       <c r="L8">
-        <v>1.024789831925906</v>
+        <v>1.059170194438135</v>
       </c>
       <c r="M8">
-        <v>1.027541723717329</v>
+        <v>1.067872894169934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9811348547043287</v>
+        <v>1.046522046270962</v>
       </c>
       <c r="D9">
-        <v>1.003236885174421</v>
+        <v>1.04433536220758</v>
       </c>
       <c r="E9">
-        <v>0.9953000302463699</v>
+        <v>1.052999143638482</v>
       </c>
       <c r="F9">
-        <v>0.9960955420649948</v>
+        <v>1.061293227389028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039102091207127</v>
+        <v>1.037106751968268</v>
       </c>
       <c r="J9">
-        <v>1.007371841113801</v>
+        <v>1.052256228533951</v>
       </c>
       <c r="K9">
-        <v>1.01627766356948</v>
+        <v>1.047470986582578</v>
       </c>
       <c r="L9">
-        <v>1.008469824230795</v>
+        <v>1.056107247268729</v>
       </c>
       <c r="M9">
-        <v>1.009252285611204</v>
+        <v>1.06437544449139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.965893047961554</v>
+        <v>1.043966671542212</v>
       </c>
       <c r="D10">
-        <v>0.9920374931321442</v>
+        <v>1.042462862256721</v>
       </c>
       <c r="E10">
-        <v>0.9818739504891634</v>
+        <v>1.0506579772415</v>
       </c>
       <c r="F10">
-        <v>0.9812315259017265</v>
+        <v>1.05866514036275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034127066248251</v>
+        <v>1.036481066908012</v>
       </c>
       <c r="J10">
-        <v>0.9955284205511801</v>
+        <v>1.050244127970701</v>
       </c>
       <c r="K10">
-        <v>1.006552016896486</v>
+        <v>1.045885527599279</v>
       </c>
       <c r="L10">
-        <v>0.9965783745406535</v>
+        <v>1.054052009273657</v>
       </c>
       <c r="M10">
-        <v>0.9959481261441441</v>
+        <v>1.062031666704188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9589214042082446</v>
+        <v>1.042856887425303</v>
       </c>
       <c r="D11">
-        <v>0.9869242726010878</v>
+        <v>1.041648957671885</v>
       </c>
       <c r="E11">
-        <v>0.9757468015786041</v>
+        <v>1.04964153364423</v>
       </c>
       <c r="F11">
-        <v>0.9744494869320736</v>
+        <v>1.057524660118352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031832631364611</v>
+        <v>1.036206676841026</v>
       </c>
       <c r="J11">
-        <v>0.990108903214529</v>
+        <v>1.049369277515474</v>
       </c>
       <c r="K11">
-        <v>1.002097063871337</v>
+        <v>1.045195245158145</v>
       </c>
       <c r="L11">
-        <v>0.9911410645017064</v>
+        <v>1.053158791693067</v>
       </c>
       <c r="M11">
-        <v>0.9898698883290127</v>
+        <v>1.06101376037572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9562693449372132</v>
+        <v>1.042444155707767</v>
       </c>
       <c r="D12">
-        <v>0.9849809343960321</v>
+        <v>1.041346162354365</v>
       </c>
       <c r="E12">
-        <v>0.9734183373343415</v>
+        <v>1.049263563034532</v>
       </c>
       <c r="F12">
-        <v>0.9718722721697487</v>
+        <v>1.057100645555483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030957160216043</v>
+        <v>1.036104231654054</v>
       </c>
       <c r="J12">
-        <v>0.9880471233831658</v>
+        <v>1.049043767548334</v>
       </c>
       <c r="K12">
-        <v>1.000401645803313</v>
+        <v>1.04493826872574</v>
       </c>
       <c r="L12">
-        <v>0.9890731558093594</v>
+        <v>1.052826506058557</v>
       </c>
       <c r="M12">
-        <v>0.9875589511675665</v>
+        <v>1.060635196146535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9568411665778773</v>
+        <v>1.042532711301675</v>
       </c>
       <c r="D13">
-        <v>0.9853998599834377</v>
+        <v>1.041411134617791</v>
       </c>
       <c r="E13">
-        <v>0.9739202773054411</v>
+        <v>1.049344658133247</v>
       </c>
       <c r="F13">
-        <v>0.9724278303100955</v>
+        <v>1.057191615961116</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031146040748014</v>
+        <v>1.036126230294261</v>
       </c>
       <c r="J13">
-        <v>0.9884916763062702</v>
+        <v>1.049113615678971</v>
       </c>
       <c r="K13">
-        <v>1.000767230484231</v>
+        <v>1.044993417193805</v>
       </c>
       <c r="L13">
-        <v>0.9895190011374601</v>
+        <v>1.052897805481501</v>
       </c>
       <c r="M13">
-        <v>0.9880571615684021</v>
+        <v>1.060716420861421</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9587035010147069</v>
+        <v>1.042822781348343</v>
       </c>
       <c r="D14">
-        <v>0.9867645626943542</v>
+        <v>1.041623938258286</v>
       </c>
       <c r="E14">
-        <v>0.9755554372016334</v>
+        <v>1.049610299077271</v>
       </c>
       <c r="F14">
-        <v>0.9742376770200066</v>
+        <v>1.057489618965766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031760751949062</v>
+        <v>1.036198219413001</v>
       </c>
       <c r="J14">
-        <v>0.9899395016696854</v>
+        <v>1.04934238207596</v>
       </c>
       <c r="K14">
-        <v>1.001957775099599</v>
+        <v>1.04517401518227</v>
       </c>
       <c r="L14">
-        <v>0.9909711463602865</v>
+        <v>1.0531313352228</v>
       </c>
       <c r="M14">
-        <v>0.9896799861918074</v>
+        <v>1.060982477768454</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9598424505263106</v>
+        <v>1.043001435271376</v>
       </c>
       <c r="D15">
-        <v>0.9875994178064568</v>
+        <v>1.041754990396265</v>
       </c>
       <c r="E15">
-        <v>0.9765557686169605</v>
+        <v>1.049773913450695</v>
       </c>
       <c r="F15">
-        <v>0.9753448892352627</v>
+        <v>1.057673176439892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032136349126252</v>
+        <v>1.036242504662504</v>
       </c>
       <c r="J15">
-        <v>0.9908249345496981</v>
+        <v>1.049483259184322</v>
       </c>
       <c r="K15">
-        <v>1.002685790148424</v>
+        <v>1.045285211136156</v>
       </c>
       <c r="L15">
-        <v>0.9918593054360783</v>
+        <v>1.053275153369448</v>
       </c>
       <c r="M15">
-        <v>0.9906726306162736</v>
+        <v>1.061146341753089</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9663473588213152</v>
+        <v>1.044040253733996</v>
       </c>
       <c r="D16">
-        <v>0.9923709209534955</v>
+        <v>1.042516812331289</v>
       </c>
       <c r="E16">
-        <v>0.9822735368825432</v>
+        <v>1.050725377275117</v>
       </c>
       <c r="F16">
-        <v>0.9816738426996655</v>
+        <v>1.058740776421532</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034276210480882</v>
+        <v>1.036499203941615</v>
       </c>
       <c r="J16">
-        <v>0.9958815537792631</v>
+        <v>1.050302112175511</v>
       </c>
       <c r="K16">
-        <v>1.006842213360322</v>
+        <v>1.045931259241768</v>
       </c>
       <c r="L16">
-        <v>0.9969327542310414</v>
+        <v>1.05411121899995</v>
       </c>
       <c r="M16">
-        <v>0.9963443800473667</v>
+        <v>1.062099156784269</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9703238269812673</v>
+        <v>1.044690986306283</v>
       </c>
       <c r="D17">
-        <v>0.9952904228858183</v>
+        <v>1.042993846741078</v>
       </c>
       <c r="E17">
-        <v>0.9857726086544055</v>
+        <v>1.0513214732015</v>
       </c>
       <c r="F17">
-        <v>0.9855472346179692</v>
+        <v>1.059409774450105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035579537218466</v>
+        <v>1.036659294297538</v>
       </c>
       <c r="J17">
-        <v>0.9989722005611557</v>
+        <v>1.050814786068749</v>
       </c>
       <c r="K17">
-        <v>1.00938153504076</v>
+        <v>1.046335493199459</v>
       </c>
       <c r="L17">
-        <v>1.000034780597286</v>
+        <v>1.054634773281222</v>
       </c>
       <c r="M17">
-        <v>0.999813509227745</v>
+        <v>1.062696011111115</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9726078567850737</v>
+        <v>1.045070231135889</v>
       </c>
       <c r="D18">
-        <v>0.996968199170687</v>
+        <v>1.043271794388822</v>
       </c>
       <c r="E18">
-        <v>0.9877837155575837</v>
+        <v>1.051668905883736</v>
       </c>
       <c r="F18">
-        <v>0.9877736133276683</v>
+        <v>1.05979974927885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036326379084365</v>
+        <v>1.036752338313101</v>
       </c>
       <c r="J18">
-        <v>1.000747198119917</v>
+        <v>1.051113473710273</v>
       </c>
       <c r="K18">
-        <v>1.010839471465631</v>
+        <v>1.046570913038084</v>
       </c>
       <c r="L18">
-        <v>1.001816703307067</v>
+        <v>1.054939837348562</v>
       </c>
       <c r="M18">
-        <v>1.001806781101127</v>
+        <v>1.06304385415257</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9733808348462473</v>
+        <v>1.045199490570629</v>
       </c>
       <c r="D19">
-        <v>0.9975361397729547</v>
+        <v>1.043366517008089</v>
       </c>
       <c r="E19">
-        <v>0.9884645408117704</v>
+        <v>1.051787327715471</v>
       </c>
       <c r="F19">
-        <v>0.9885273391631717</v>
+        <v>1.059932680251582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036578825407173</v>
+        <v>1.03678400738995</v>
       </c>
       <c r="J19">
-        <v>1.001347861983398</v>
+        <v>1.051215260059889</v>
       </c>
       <c r="K19">
-        <v>1.011332766015421</v>
+        <v>1.046651123810352</v>
       </c>
       <c r="L19">
-        <v>1.002419776475296</v>
+        <v>1.055043803000408</v>
       </c>
       <c r="M19">
-        <v>1.002481463871038</v>
+        <v>1.063162410490578</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9699008930870769</v>
+        <v>1.044621201696359</v>
       </c>
       <c r="D20">
-        <v>0.9949798159229184</v>
+        <v>1.042942696400482</v>
       </c>
       <c r="E20">
-        <v>0.9854003147244178</v>
+        <v>1.051257544729013</v>
       </c>
       <c r="F20">
-        <v>0.9851351008200784</v>
+        <v>1.059338022257551</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035441099591357</v>
+        <v>1.036642152691698</v>
       </c>
       <c r="J20">
-        <v>0.9986435044377584</v>
+        <v>1.050759816918103</v>
       </c>
       <c r="K20">
-        <v>1.009111517361186</v>
+        <v>1.046292160329786</v>
       </c>
       <c r="L20">
-        <v>0.9997048336118278</v>
+        <v>1.054578633657542</v>
       </c>
       <c r="M20">
-        <v>0.9994444665064071</v>
+        <v>1.062632004582675</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9581568734790864</v>
+        <v>1.042737377100783</v>
       </c>
       <c r="D21">
-        <v>0.9863639472746726</v>
+        <v>1.041561286074654</v>
       </c>
       <c r="E21">
-        <v>0.9750754229315076</v>
+        <v>1.049532086082276</v>
       </c>
       <c r="F21">
-        <v>0.9737063793154477</v>
+        <v>1.057401875368559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031580394749708</v>
+        <v>1.036177034923129</v>
       </c>
       <c r="J21">
-        <v>0.9895145425060475</v>
+        <v>1.049275031388863</v>
       </c>
       <c r="K21">
-        <v>1.00160834734843</v>
+        <v>1.045120849513276</v>
       </c>
       <c r="L21">
-        <v>0.9905449015896802</v>
+        <v>1.053062580561339</v>
       </c>
       <c r="M21">
-        <v>0.989203622560707</v>
+        <v>1.060904143674525</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9504072959774119</v>
+        <v>1.041549992742401</v>
       </c>
       <c r="D22">
-        <v>0.9806891242791166</v>
+        <v>1.04068998622039</v>
       </c>
       <c r="E22">
-        <v>0.9682761939444422</v>
+        <v>1.048444796090099</v>
       </c>
       <c r="F22">
-        <v>0.966180925120474</v>
+        <v>1.05618228305237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029017353812779</v>
+        <v>1.035881560302274</v>
       </c>
       <c r="J22">
-        <v>0.9834897518618336</v>
+        <v>1.048338291107296</v>
       </c>
       <c r="K22">
-        <v>0.9966530916704269</v>
+        <v>1.044381069942319</v>
       </c>
       <c r="L22">
-        <v>0.984503435817231</v>
+        <v>1.05210645125612</v>
       </c>
       <c r="M22">
-        <v>0.9824534930472076</v>
+        <v>1.059815052077416</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9545526710554478</v>
+        <v>1.042179731971779</v>
       </c>
       <c r="D23">
-        <v>0.9837235605208697</v>
+        <v>1.041152142752546</v>
       </c>
       <c r="E23">
-        <v>0.9719118207165502</v>
+        <v>1.049021423079611</v>
       </c>
       <c r="F23">
-        <v>0.9702048381918754</v>
+        <v>1.056829030818246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030389745447522</v>
+        <v>1.036038486182639</v>
       </c>
       <c r="J23">
-        <v>0.9867125173002605</v>
+        <v>1.048835181583012</v>
       </c>
       <c r="K23">
-        <v>0.9993040330266509</v>
+        <v>1.044773559650081</v>
       </c>
       <c r="L23">
-        <v>0.9877347646350295</v>
+        <v>1.052613594655007</v>
       </c>
       <c r="M23">
-        <v>0.9860634687751346</v>
+        <v>1.060392661876031</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9700921075470215</v>
+        <v>1.044652735335578</v>
       </c>
       <c r="D24">
-        <v>0.9951202431414149</v>
+        <v>1.042965809959946</v>
       </c>
       <c r="E24">
-        <v>0.985568630146592</v>
+        <v>1.051286432057331</v>
       </c>
       <c r="F24">
-        <v>0.9853214275809421</v>
+        <v>1.059370444727667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035503694744311</v>
+        <v>1.036649899277541</v>
       </c>
       <c r="J24">
-        <v>0.9987921133779217</v>
+        <v>1.050784656181427</v>
       </c>
       <c r="K24">
-        <v>1.009233598146786</v>
+        <v>1.046311741710012</v>
       </c>
       <c r="L24">
-        <v>0.9998540068759627</v>
+        <v>1.0546040017143</v>
       </c>
       <c r="M24">
-        <v>0.9996113139865704</v>
+        <v>1.062660927279985</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9867520450296176</v>
+        <v>1.04751015266267</v>
       </c>
       <c r="D25">
-        <v>1.007370253025456</v>
+        <v>1.045058793808688</v>
       </c>
       <c r="E25">
-        <v>1.000258453575435</v>
+        <v>1.053904691922899</v>
       </c>
       <c r="F25">
-        <v>1.001586553551639</v>
+        <v>1.062310230743898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040918755290959</v>
+        <v>1.037346322542319</v>
       </c>
       <c r="J25">
-        <v>1.011733631685946</v>
+        <v>1.053033363803286</v>
       </c>
       <c r="K25">
-        <v>1.019855222652785</v>
+        <v>1.048082506830726</v>
       </c>
       <c r="L25">
-        <v>1.012852758709265</v>
+        <v>1.056901389603565</v>
       </c>
       <c r="M25">
-        <v>1.014160290145143</v>
+        <v>1.06528171208973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049779759218478</v>
+        <v>0.999128509802896</v>
       </c>
       <c r="D2">
-        <v>1.046719066332265</v>
+        <v>1.016485855226506</v>
       </c>
       <c r="E2">
-        <v>1.055985252378274</v>
+        <v>1.01120290602901</v>
       </c>
       <c r="F2">
-        <v>1.064647919388419</v>
+        <v>1.013710839572542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037891377006614</v>
+        <v>1.044882787476458</v>
       </c>
       <c r="J2">
-        <v>1.054816396963882</v>
+        <v>1.02133531827433</v>
       </c>
       <c r="K2">
-        <v>1.049483715523722</v>
+        <v>1.027720196033458</v>
       </c>
       <c r="L2">
-        <v>1.058724206674621</v>
+        <v>1.02250834209705</v>
       </c>
       <c r="M2">
-        <v>1.067363290219444</v>
+        <v>1.024982409001627</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051422459474212</v>
+        <v>1.007664093016759</v>
       </c>
       <c r="D3">
-        <v>1.047919464890361</v>
+        <v>1.022777307249273</v>
       </c>
       <c r="E3">
-        <v>1.057491640126352</v>
+        <v>1.018766364993568</v>
       </c>
       <c r="F3">
-        <v>1.066341427089236</v>
+        <v>1.022094074236934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038281166959797</v>
+        <v>1.047580657694905</v>
       </c>
       <c r="J3">
-        <v>1.056105125808102</v>
+        <v>1.027947985447482</v>
       </c>
       <c r="K3">
-        <v>1.05049480413219</v>
+        <v>1.03312681259634</v>
       </c>
       <c r="L3">
-        <v>1.060042379528147</v>
+        <v>1.029164628039494</v>
       </c>
       <c r="M3">
-        <v>1.06886984643475</v>
+        <v>1.03245185149372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052483056015862</v>
+        <v>1.013000115960674</v>
       </c>
       <c r="D4">
-        <v>1.048693893065423</v>
+        <v>1.026711474996381</v>
       </c>
       <c r="E4">
-        <v>1.058464461607183</v>
+        <v>1.023501062280377</v>
       </c>
       <c r="F4">
-        <v>1.06743553210545</v>
+        <v>1.027344233926712</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038530648265959</v>
+        <v>1.049249990188614</v>
       </c>
       <c r="J4">
-        <v>1.056936347906306</v>
+        <v>1.032077023681234</v>
       </c>
       <c r="K4">
-        <v>1.051146174450459</v>
+        <v>1.036497860350535</v>
       </c>
       <c r="L4">
-        <v>1.060892912643394</v>
+        <v>1.033323888718208</v>
       </c>
       <c r="M4">
-        <v>1.069842515340154</v>
+        <v>1.037123470005183</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052928382075461</v>
+        <v>1.015201442670431</v>
       </c>
       <c r="D5">
-        <v>1.049018917043821</v>
+        <v>1.028334581197212</v>
       </c>
       <c r="E5">
-        <v>1.058872987815108</v>
+        <v>1.025455752679372</v>
       </c>
       <c r="F5">
-        <v>1.067895096139295</v>
+        <v>1.029512311285724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038634877674889</v>
+        <v>1.049934433481574</v>
       </c>
       <c r="J5">
-        <v>1.057285163016612</v>
+        <v>1.033779169766629</v>
       </c>
       <c r="K5">
-        <v>1.051419330001377</v>
+        <v>1.037886311352337</v>
       </c>
       <c r="L5">
-        <v>1.061249908183964</v>
+        <v>1.035039209034637</v>
       </c>
       <c r="M5">
-        <v>1.070250915126877</v>
+        <v>1.039051125045499</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053003122437076</v>
+        <v>1.015568673523383</v>
       </c>
       <c r="D6">
-        <v>1.049073458217405</v>
+        <v>1.028605353597756</v>
       </c>
       <c r="E6">
-        <v>1.058941555179441</v>
+        <v>1.025781920711843</v>
       </c>
       <c r="F6">
-        <v>1.067972235961908</v>
+        <v>1.02987412110126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038652340077506</v>
+        <v>1.050048363081429</v>
       </c>
       <c r="J6">
-        <v>1.05734369388453</v>
+        <v>1.034063050260618</v>
       </c>
       <c r="K6">
-        <v>1.051465154314117</v>
+        <v>1.038117801267324</v>
       </c>
       <c r="L6">
-        <v>1.061309816226209</v>
+        <v>1.035325328771589</v>
       </c>
       <c r="M6">
-        <v>1.070319457622475</v>
+        <v>1.039372723938177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052489008624616</v>
+        <v>1.01302969142341</v>
       </c>
       <c r="D7">
-        <v>1.048698238185375</v>
+        <v>1.026733281689874</v>
       </c>
       <c r="E7">
-        <v>1.058469922100866</v>
+        <v>1.023527318554025</v>
       </c>
       <c r="F7">
-        <v>1.067441674369937</v>
+        <v>1.027373354164451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038532043543998</v>
+        <v>1.049259202729101</v>
       </c>
       <c r="J7">
-        <v>1.056941011256555</v>
+        <v>1.032099897563193</v>
       </c>
       <c r="K7">
-        <v>1.051149827032658</v>
+        <v>1.036516523616813</v>
       </c>
       <c r="L7">
-        <v>1.060897685056856</v>
+        <v>1.033346936804902</v>
       </c>
       <c r="M7">
-        <v>1.069847974388837</v>
+        <v>1.037149367038051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050335409035239</v>
+        <v>1.00205369063467</v>
       </c>
       <c r="D8">
-        <v>1.047125229401512</v>
+        <v>1.018641638589436</v>
       </c>
       <c r="E8">
-        <v>1.056494745022865</v>
+        <v>1.013793516434465</v>
       </c>
       <c r="F8">
-        <v>1.065220608550963</v>
+        <v>1.016581774595492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038023677354945</v>
+        <v>1.045810953466377</v>
       </c>
       <c r="J8">
-        <v>1.055252487491488</v>
+        <v>1.023602486958819</v>
       </c>
       <c r="K8">
-        <v>1.049826016437621</v>
+        <v>1.029574881564289</v>
       </c>
       <c r="L8">
-        <v>1.059170194438135</v>
+        <v>1.024789831925905</v>
       </c>
       <c r="M8">
-        <v>1.067872894169934</v>
+        <v>1.027541723717327</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046522046270962</v>
+        <v>0.9811348547043279</v>
       </c>
       <c r="D9">
-        <v>1.04433536220758</v>
+        <v>1.003236885174421</v>
       </c>
       <c r="E9">
-        <v>1.052999143638482</v>
+        <v>0.9953000302463687</v>
       </c>
       <c r="F9">
-        <v>1.061293227389028</v>
+        <v>0.9960955420649934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037106751968268</v>
+        <v>1.039102091207127</v>
       </c>
       <c r="J9">
-        <v>1.052256228533951</v>
+        <v>1.0073718411138</v>
       </c>
       <c r="K9">
-        <v>1.047470986582578</v>
+        <v>1.01627766356948</v>
       </c>
       <c r="L9">
-        <v>1.056107247268729</v>
+        <v>1.008469824230794</v>
       </c>
       <c r="M9">
-        <v>1.06437544449139</v>
+        <v>1.009252285611202</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043966671542212</v>
+        <v>0.9658930479615524</v>
       </c>
       <c r="D10">
-        <v>1.042462862256721</v>
+        <v>0.9920374931321428</v>
       </c>
       <c r="E10">
-        <v>1.0506579772415</v>
+        <v>0.9818739504891623</v>
       </c>
       <c r="F10">
-        <v>1.05866514036275</v>
+        <v>0.9812315259017257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036481066908012</v>
+        <v>1.03412706624825</v>
       </c>
       <c r="J10">
-        <v>1.050244127970701</v>
+        <v>0.9955284205511787</v>
       </c>
       <c r="K10">
-        <v>1.045885527599279</v>
+        <v>1.006552016896485</v>
       </c>
       <c r="L10">
-        <v>1.054052009273657</v>
+        <v>0.9965783745406522</v>
       </c>
       <c r="M10">
-        <v>1.062031666704188</v>
+        <v>0.9959481261441432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042856887425303</v>
+        <v>0.9589214042082438</v>
       </c>
       <c r="D11">
-        <v>1.041648957671885</v>
+        <v>0.9869242726010871</v>
       </c>
       <c r="E11">
-        <v>1.04964153364423</v>
+        <v>0.9757468015786033</v>
       </c>
       <c r="F11">
-        <v>1.057524660118352</v>
+        <v>0.9744494869320728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036206676841026</v>
+        <v>1.031832631364611</v>
       </c>
       <c r="J11">
-        <v>1.049369277515474</v>
+        <v>0.9901089032145282</v>
       </c>
       <c r="K11">
-        <v>1.045195245158145</v>
+        <v>1.002097063871336</v>
       </c>
       <c r="L11">
-        <v>1.053158791693067</v>
+        <v>0.9911410645017057</v>
       </c>
       <c r="M11">
-        <v>1.06101376037572</v>
+        <v>0.989869888329012</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042444155707767</v>
+        <v>0.9562693449372129</v>
       </c>
       <c r="D12">
-        <v>1.041346162354365</v>
+        <v>0.9849809343960322</v>
       </c>
       <c r="E12">
-        <v>1.049263563034532</v>
+        <v>0.973418337334341</v>
       </c>
       <c r="F12">
-        <v>1.057100645555483</v>
+        <v>0.9718722721697487</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036104231654054</v>
+        <v>1.030957160216043</v>
       </c>
       <c r="J12">
-        <v>1.049043767548334</v>
+        <v>0.9880471233831657</v>
       </c>
       <c r="K12">
-        <v>1.04493826872574</v>
+        <v>1.000401645803313</v>
       </c>
       <c r="L12">
-        <v>1.052826506058557</v>
+        <v>0.9890731558093594</v>
       </c>
       <c r="M12">
-        <v>1.060635196146535</v>
+        <v>0.9875589511675668</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042532711301675</v>
+        <v>0.9568411665778763</v>
       </c>
       <c r="D13">
-        <v>1.041411134617791</v>
+        <v>0.9853998599834367</v>
       </c>
       <c r="E13">
-        <v>1.049344658133247</v>
+        <v>0.9739202773054403</v>
       </c>
       <c r="F13">
-        <v>1.057191615961116</v>
+        <v>0.9724278303100946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036126230294261</v>
+        <v>1.031146040748013</v>
       </c>
       <c r="J13">
-        <v>1.049113615678971</v>
+        <v>0.9884916763062693</v>
       </c>
       <c r="K13">
-        <v>1.044993417193805</v>
+        <v>1.00076723048423</v>
       </c>
       <c r="L13">
-        <v>1.052897805481501</v>
+        <v>0.9895190011374592</v>
       </c>
       <c r="M13">
-        <v>1.060716420861421</v>
+        <v>0.9880571615684013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042822781348343</v>
+        <v>0.9587035010147051</v>
       </c>
       <c r="D14">
-        <v>1.041623938258286</v>
+        <v>0.9867645626943523</v>
       </c>
       <c r="E14">
-        <v>1.049610299077271</v>
+        <v>0.9755554372016318</v>
       </c>
       <c r="F14">
-        <v>1.057489618965766</v>
+        <v>0.9742376770200049</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036198219413001</v>
+        <v>1.031760751949061</v>
       </c>
       <c r="J14">
-        <v>1.04934238207596</v>
+        <v>0.9899395016696837</v>
       </c>
       <c r="K14">
-        <v>1.04517401518227</v>
+        <v>1.001957775099598</v>
       </c>
       <c r="L14">
-        <v>1.0531313352228</v>
+        <v>0.9909711463602848</v>
       </c>
       <c r="M14">
-        <v>1.060982477768454</v>
+        <v>0.9896799861918057</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043001435271376</v>
+        <v>0.9598424505263098</v>
       </c>
       <c r="D15">
-        <v>1.041754990396265</v>
+        <v>0.9875994178064562</v>
       </c>
       <c r="E15">
-        <v>1.049773913450695</v>
+        <v>0.9765557686169596</v>
       </c>
       <c r="F15">
-        <v>1.057673176439892</v>
+        <v>0.9753448892352617</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036242504662504</v>
+        <v>1.032136349126252</v>
       </c>
       <c r="J15">
-        <v>1.049483259184322</v>
+        <v>0.9908249345496973</v>
       </c>
       <c r="K15">
-        <v>1.045285211136156</v>
+        <v>1.002685790148424</v>
       </c>
       <c r="L15">
-        <v>1.053275153369448</v>
+        <v>0.9918593054360773</v>
       </c>
       <c r="M15">
-        <v>1.061146341753089</v>
+        <v>0.9906726306162729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044040253733996</v>
+        <v>0.9663473588213152</v>
       </c>
       <c r="D16">
-        <v>1.042516812331289</v>
+        <v>0.9923709209534957</v>
       </c>
       <c r="E16">
-        <v>1.050725377275117</v>
+        <v>0.9822735368825437</v>
       </c>
       <c r="F16">
-        <v>1.058740776421532</v>
+        <v>0.981673842699666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036499203941615</v>
+        <v>1.034276210480882</v>
       </c>
       <c r="J16">
-        <v>1.050302112175511</v>
+        <v>0.9958815537792632</v>
       </c>
       <c r="K16">
-        <v>1.045931259241768</v>
+        <v>1.006842213360322</v>
       </c>
       <c r="L16">
-        <v>1.05411121899995</v>
+        <v>0.9969327542310418</v>
       </c>
       <c r="M16">
-        <v>1.062099156784269</v>
+        <v>0.9963443800473673</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044690986306283</v>
+        <v>0.9703238269812648</v>
       </c>
       <c r="D17">
-        <v>1.042993846741078</v>
+        <v>0.995290422885816</v>
       </c>
       <c r="E17">
-        <v>1.0513214732015</v>
+        <v>0.9857726086544031</v>
       </c>
       <c r="F17">
-        <v>1.059409774450105</v>
+        <v>0.9855472346179665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036659294297538</v>
+        <v>1.035579537218465</v>
       </c>
       <c r="J17">
-        <v>1.050814786068749</v>
+        <v>0.9989722005611537</v>
       </c>
       <c r="K17">
-        <v>1.046335493199459</v>
+        <v>1.009381535040758</v>
       </c>
       <c r="L17">
-        <v>1.054634773281222</v>
+        <v>1.000034780597284</v>
       </c>
       <c r="M17">
-        <v>1.062696011111115</v>
+        <v>0.9998135092277424</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045070231135889</v>
+        <v>0.9726078567850743</v>
       </c>
       <c r="D18">
-        <v>1.043271794388822</v>
+        <v>0.9969681991706875</v>
       </c>
       <c r="E18">
-        <v>1.051668905883736</v>
+        <v>0.9877837155575843</v>
       </c>
       <c r="F18">
-        <v>1.05979974927885</v>
+        <v>0.9877736133276692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036752338313101</v>
+        <v>1.036326379084365</v>
       </c>
       <c r="J18">
-        <v>1.051113473710273</v>
+        <v>1.000747198119917</v>
       </c>
       <c r="K18">
-        <v>1.046570913038084</v>
+        <v>1.010839471465632</v>
       </c>
       <c r="L18">
-        <v>1.054939837348562</v>
+        <v>1.001816703307068</v>
       </c>
       <c r="M18">
-        <v>1.06304385415257</v>
+        <v>1.001806781101127</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045199490570629</v>
+        <v>0.9733808348462463</v>
       </c>
       <c r="D19">
-        <v>1.043366517008089</v>
+        <v>0.9975361397729541</v>
       </c>
       <c r="E19">
-        <v>1.051787327715471</v>
+        <v>0.9884645408117695</v>
       </c>
       <c r="F19">
-        <v>1.059932680251582</v>
+        <v>0.9885273391631706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03678400738995</v>
+        <v>1.036578825407173</v>
       </c>
       <c r="J19">
-        <v>1.051215260059889</v>
+        <v>1.001347861983398</v>
       </c>
       <c r="K19">
-        <v>1.046651123810352</v>
+        <v>1.011332766015421</v>
       </c>
       <c r="L19">
-        <v>1.055043803000408</v>
+        <v>1.002419776475295</v>
       </c>
       <c r="M19">
-        <v>1.063162410490578</v>
+        <v>1.002481463871037</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044621201696359</v>
+        <v>0.9699008930870769</v>
       </c>
       <c r="D20">
-        <v>1.042942696400482</v>
+        <v>0.9949798159229183</v>
       </c>
       <c r="E20">
-        <v>1.051257544729013</v>
+        <v>0.9854003147244175</v>
       </c>
       <c r="F20">
-        <v>1.059338022257551</v>
+        <v>0.9851351008200784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036642152691698</v>
+        <v>1.035441099591357</v>
       </c>
       <c r="J20">
-        <v>1.050759816918103</v>
+        <v>0.9986435044377582</v>
       </c>
       <c r="K20">
-        <v>1.046292160329786</v>
+        <v>1.009111517361186</v>
       </c>
       <c r="L20">
-        <v>1.054578633657542</v>
+        <v>0.9997048336118276</v>
       </c>
       <c r="M20">
-        <v>1.062632004582675</v>
+        <v>0.9994444665064071</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042737377100783</v>
+        <v>0.9581568734790866</v>
       </c>
       <c r="D21">
-        <v>1.041561286074654</v>
+        <v>0.9863639472746727</v>
       </c>
       <c r="E21">
-        <v>1.049532086082276</v>
+        <v>0.9750754229315078</v>
       </c>
       <c r="F21">
-        <v>1.057401875368559</v>
+        <v>0.9737063793154481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036177034923129</v>
+        <v>1.031580394749708</v>
       </c>
       <c r="J21">
-        <v>1.049275031388863</v>
+        <v>0.9895145425060478</v>
       </c>
       <c r="K21">
-        <v>1.045120849513276</v>
+        <v>1.00160834734843</v>
       </c>
       <c r="L21">
-        <v>1.053062580561339</v>
+        <v>0.9905449015896804</v>
       </c>
       <c r="M21">
-        <v>1.060904143674525</v>
+        <v>0.9892036225607076</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041549992742401</v>
+        <v>0.9504072959774077</v>
       </c>
       <c r="D22">
-        <v>1.04068998622039</v>
+        <v>0.9806891242791137</v>
       </c>
       <c r="E22">
-        <v>1.048444796090099</v>
+        <v>0.9682761939444382</v>
       </c>
       <c r="F22">
-        <v>1.05618228305237</v>
+        <v>0.9661809251204702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035881560302274</v>
+        <v>1.029017353812778</v>
       </c>
       <c r="J22">
-        <v>1.048338291107296</v>
+        <v>0.9834897518618299</v>
       </c>
       <c r="K22">
-        <v>1.044381069942319</v>
+        <v>0.9966530916704242</v>
       </c>
       <c r="L22">
-        <v>1.05210645125612</v>
+        <v>0.9845034358172271</v>
       </c>
       <c r="M22">
-        <v>1.059815052077416</v>
+        <v>0.9824534930472036</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042179731971779</v>
+        <v>0.9545526710554479</v>
       </c>
       <c r="D23">
-        <v>1.041152142752546</v>
+        <v>0.9837235605208694</v>
       </c>
       <c r="E23">
-        <v>1.049021423079611</v>
+        <v>0.9719118207165501</v>
       </c>
       <c r="F23">
-        <v>1.056829030818246</v>
+        <v>0.970204838191876</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036038486182639</v>
+        <v>1.030389745447521</v>
       </c>
       <c r="J23">
-        <v>1.048835181583012</v>
+        <v>0.9867125173002607</v>
       </c>
       <c r="K23">
-        <v>1.044773559650081</v>
+        <v>0.9993040330266509</v>
       </c>
       <c r="L23">
-        <v>1.052613594655007</v>
+        <v>0.9877347646350298</v>
       </c>
       <c r="M23">
-        <v>1.060392661876031</v>
+        <v>0.986063468775135</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044652735335578</v>
+        <v>0.9700921075470238</v>
       </c>
       <c r="D24">
-        <v>1.042965809959946</v>
+        <v>0.995120243141417</v>
       </c>
       <c r="E24">
-        <v>1.051286432057331</v>
+        <v>0.9855686301465941</v>
       </c>
       <c r="F24">
-        <v>1.059370444727667</v>
+        <v>0.9853214275809448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036649899277541</v>
+        <v>1.035503694744312</v>
       </c>
       <c r="J24">
-        <v>1.050784656181427</v>
+        <v>0.9987921133779241</v>
       </c>
       <c r="K24">
-        <v>1.046311741710012</v>
+        <v>1.009233598146788</v>
       </c>
       <c r="L24">
-        <v>1.0546040017143</v>
+        <v>0.9998540068759652</v>
       </c>
       <c r="M24">
-        <v>1.062660927279985</v>
+        <v>0.999611313986573</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04751015266267</v>
+        <v>0.9867520450296176</v>
       </c>
       <c r="D25">
-        <v>1.045058793808688</v>
+        <v>1.007370253025456</v>
       </c>
       <c r="E25">
-        <v>1.053904691922899</v>
+        <v>1.000258453575435</v>
       </c>
       <c r="F25">
-        <v>1.062310230743898</v>
+        <v>1.00158655355164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037346322542319</v>
+        <v>1.04091875529096</v>
       </c>
       <c r="J25">
-        <v>1.053033363803286</v>
+        <v>1.011733631685946</v>
       </c>
       <c r="K25">
-        <v>1.048082506830726</v>
+        <v>1.019855222652785</v>
       </c>
       <c r="L25">
-        <v>1.056901389603565</v>
+        <v>1.012852758709265</v>
       </c>
       <c r="M25">
-        <v>1.06528171208973</v>
+        <v>1.014160290145143</v>
       </c>
     </row>
   </sheetData>
